--- a/importScripts/rwahsMediaMapping.xlsx
+++ b/importScripts/rwahsMediaMapping.xlsx
@@ -1351,6 +1351,7 @@
     <col customWidth="1" min="3" max="3" width="45.71"/>
     <col customWidth="1" min="4" max="4" width="19.43"/>
     <col customWidth="1" min="5" max="5" width="24.86"/>
+    <col customWidth="1" min="6" max="6" width="26.86"/>
     <col customWidth="1" min="7" max="7" width="18.0"/>
     <col customWidth="1" min="10" max="10" width="16.43"/>
     <col customWidth="1" min="14" max="23" width="33.71"/>

--- a/importScripts/rwahsMediaMapping.xlsx
+++ b/importScripts/rwahsMediaMapping.xlsx
@@ -256,14 +256,16 @@
   <si>
     <t>{
     "objectRepresentationType": "front",
+    "matchOn": ["idno"],
     "attributes": {
         "media": "^ImagePath",
-        "name": "^ImageDescription",
-        "idno": "^ObjectsImagesID",
+        "preferred_labels":{
+            "name": "^ImageDescription"
+        },
         "access": "^DisplayImage",
         "status": "complete"
     },
-    "interstitial":{
+    "interstitial": {
         "is_primary": "^DefaultImageIndicator"
     },
     "mediaPrefix": "ImagesMosaic"

--- a/importScripts/rwahsMediaMapping.xlsx
+++ b/importScripts/rwahsMediaMapping.xlsx
@@ -256,14 +256,15 @@
   <si>
     <t>{
     "objectRepresentationType": "front",
-    "matchOn": ["idno"],
+    "matchOn": [
+        "idno"
+    ],
     "attributes": {
         "media": "^ImagePath",
-        "preferred_labels":{
+        "preferred_labels": {
             "name": "^ImageDescription"
         },
-        "access": "^DisplayImage",
-        "status": "complete"
+        "access": "^DisplayImage"
     },
     "interstitial": {
         "is_primary": "^DefaultImageIndicator"
